--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t xml:space="preserve"> [CS:N]Азурилл[CR] не пострадал...[K] Я...[K]\nЯ...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0803.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please take care on your\nexpedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Берегите себя в экспедиции!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåñåãéóå òåáÿ â üëòðåäéøéé!</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,6 +556,37 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>259</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>262</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Áåñåãéóå òåáÿ â üëòðåäéøéé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P01A/um1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re sorry to bother you.[K]\nPlease get back our item!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Простите, что докучаем вам.[K]\nПрошу, верните нашу вещь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóéóå, œóï äïëôœàåí âàí.[K]\nÐñïšô, âåñîéóå îàšô âåþû!</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,11 +168,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -181,6 +204,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,17 +603,35 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>262</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>240</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñïòóéóå, œóï äïëôœàåí âàí.[K]\nÐñïšô, âåñîéóå îàšô âåþû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re counting on you![K]\nGood luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, [hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы надеемся на вас![K] Удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, [hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàäååíòÿ îà âàò![K] Ôäàœé!</t>
   </si>
 </sst>
 </file>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,6 +652,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>218</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>221</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -115,6 +115,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú îàäååíòÿ îà âàò![K] Ôäàœé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re all right! Am I ever glad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We heard you disappeared into\nsomething called a dimensional hole! That made\nus very worried…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But you\'re back! And you\'re all\nright! I\'m so glad to see you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы целы! Я так этому рад!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы узнали, что вы исчезли в\nкакой-то пространственной дыре! Мы так\nиспереживались...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но вы вернулись! И вы в полном\nпорядке! Я так рад вас видеть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú øåìú! Ÿ óàë üóïíô ñàä!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôèîàìé, œóï âú éòœåèìé â\nëàëïê-óï ðñïòóñàîòóâåîîïê äúñå! Íú óàë\néòðåñåçéâàìéòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âú âåñîôìéòû! É âú â ðïìîïí\nðïñÿäëå! Ÿ óàë ñàä âàò âéäåóû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll be thinking of you!\nGood luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы будем за вас переживать!\nУдачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú áôäåí èà âàò ðåñåçéâàóû!\nÔäàœé!</t>
   </si>
 </sst>
 </file>
@@ -510,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,17 +715,98 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>221</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4">
+        <v>190</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>193</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>199</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4">
+        <v>171</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -160,6 +160,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú áôäåí èà âàò ðåñåçéâàóû!\nÔäàœé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2504.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The grand master of all\nthings bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ummm... Sorry.[K] I\'ve never heard\nof such a creature.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гранд мастер всего самого\nплохого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эммм... Простите.[K] Я ничего не\nзнаю об этом существе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üííí... Ðñïòóéóå.[K] Ÿ îéœåãï îå\nèîàý ïá üóïí òôþåòóâå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve heard! You graduated\nfrom the guild!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже знаем! Вы выпустились\nиз гильдии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå èîàåí! Âú âúðôòóéìéòû\néè ãéìûäéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us3101.ssb</t>
   </si>
 </sst>
 </file>
@@ -555,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -807,6 +855,81 @@
       </c>
       <c r="E15" s="5" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4">
+        <v>149</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
+        <v>152</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4">
+        <v>126</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4">
+        <v>130</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -208,6 +208,87 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us3101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âòåãäà, âòåãäà îàí ðïíïãàåóå...[K]\nÒðàòéáï âàí ïãñïíîåêšåå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы всегда, всегда нам помогаете...[K]\nСпасибо вам огромнейшее...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You always, always help us...[K]\nThank you so much…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Šíúã... [hero],\n[partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шмыг... [hero],\n[partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sniffle... [hero],\n[partner]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/G01P07A/us2003.ssb </t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2006.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам, [hero] и\n[partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí, [hero] é\n[partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/us2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Azurill[CR]...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s still asleep…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Азурилл[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он всё ещё спит...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Àèôñéìì[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî âòæ åþæ òðéó...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You saved [CS:N]Azurill[CR]...[K] You made\nthe world peaceful…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you... Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы спасли [CS:N]Азурилла[CR]...[K] И вернули\nв мир покой...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òðàòìé [CS:N]Àèôñéììà[CR]...[K] É âåñîôìé\nâ íéñ ðïëïê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам... Спасибо вам огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí... Òðàòéáï âàí ïãñïíîïå!</t>
   </si>
 </sst>
 </file>
@@ -603,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,6 +1013,129 @@
         <v>61</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4">
+        <v>105</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="6">
+        <v>108</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4">
+        <v>83</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>86</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="8">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Марилл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéáï âàí... Òðàòéáï âàí ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. [CS:N]Drowzee[CR] left to go travel a\nwhile ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, [hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не так давно, Мистер [CS:N]Дроузи[CR]\nушёл в путешествие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, [hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå óàë äàâîï, Íéòóåñ [CS:N]Äñïôèé[CR]\nôšæì â ðôóåšåòóâéå.</t>
   </si>
 </sst>
 </file>
@@ -684,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,18 +1140,50 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+    <row r="28" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
